--- a/варианты/простоегэ/5/18.xlsx
+++ b/варианты/простоегэ/5/18.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Арсений\PycharmProjects\leletko1\варианты\простоегэ\5\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23940" windowHeight="4815"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="4815"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -259,7 +254,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -294,7 +289,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -503,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AV21"/>
+  <dimension ref="A1:AV23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AR23" sqref="AR23"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AG23" sqref="AG23:AH23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,28 +679,28 @@
         <v>116</v>
       </c>
       <c r="X2" s="5">
-        <f>MAX(X1,W2)+B2</f>
+        <f>MIN(X1,W2)+B2</f>
+        <v>136</v>
+      </c>
+      <c r="Y2" s="5">
+        <f>MIN(Y1,X2)+C2</f>
         <v>196</v>
       </c>
-      <c r="Y2" s="5">
-        <f>MAX(Y1,X2)+C2</f>
-        <v>302</v>
-      </c>
       <c r="Z2" s="5">
-        <f>MAX(Z1,Y2)+D2</f>
-        <v>376</v>
+        <f>MIN(Z1,Y2)+D2</f>
+        <v>270</v>
       </c>
       <c r="AA2" s="5">
-        <f>MAX(AA1,Z2)+E2</f>
-        <v>443</v>
+        <f>MIN(AA1,Z2)+E2</f>
+        <v>337</v>
       </c>
       <c r="AB2" s="5">
-        <f>MAX(AB1,AA2)+F2</f>
-        <v>501</v>
+        <f>MIN(AB1,AA2)+F2</f>
+        <v>395</v>
       </c>
       <c r="AC2" s="6">
-        <f>MAX(AC1,AB2)+G2</f>
-        <v>509</v>
+        <f>MIN(AC1,AB2)+G2</f>
+        <v>403</v>
       </c>
       <c r="AD2" s="5"/>
       <c r="AE2" s="5"/>
@@ -787,28 +782,28 @@
         <v>142</v>
       </c>
       <c r="X3" s="5">
-        <f>MAX(X2,W3)+B3</f>
-        <v>203</v>
+        <f>MIN(X2,W3)+B3</f>
+        <v>143</v>
       </c>
       <c r="Y3" s="5">
-        <f>MAX(Y2,X3)+C3</f>
-        <v>350</v>
+        <f>MIN(Y2,X3)+C3</f>
+        <v>191</v>
       </c>
       <c r="Z3" s="5">
-        <f>MAX(Z2,Y3)+D3</f>
-        <v>401</v>
+        <f>MIN(Z2,Y3)+D3</f>
+        <v>216</v>
       </c>
       <c r="AA3" s="5">
-        <f>MAX(AA2,Z3)+E3</f>
-        <v>465</v>
+        <f>MIN(AA2,Z3)+E3</f>
+        <v>238</v>
       </c>
       <c r="AB3" s="5">
-        <f>MAX(AB2,AA3)+F3</f>
-        <v>554</v>
+        <f>MIN(AB2,AA3)+F3</f>
+        <v>291</v>
       </c>
       <c r="AC3" s="6">
-        <f>MAX(AC2,AB3)+G3</f>
-        <v>589</v>
+        <f>MIN(AC2,AB3)+G3</f>
+        <v>326</v>
       </c>
       <c r="AD3" s="7"/>
       <c r="AE3" s="5"/>
@@ -894,28 +889,28 @@
         <v>212</v>
       </c>
       <c r="X4" s="5">
-        <f>MAX(X3,W4)+B4</f>
-        <v>291</v>
+        <f>MIN(X3,W4)+B4</f>
+        <v>222</v>
       </c>
       <c r="Y4" s="5">
-        <f>MAX(Y3,X4)+C4</f>
-        <v>389</v>
+        <f>MIN(Y3,X4)+C4</f>
+        <v>230</v>
       </c>
       <c r="Z4" s="5">
-        <f>MAX(Z3,Y4)+D4</f>
-        <v>437</v>
+        <f>MIN(Z3,Y4)+D4</f>
+        <v>252</v>
       </c>
       <c r="AA4" s="5">
-        <f>MAX(AA3,Z4)+E4</f>
-        <v>479</v>
+        <f>MIN(AA3,Z4)+E4</f>
+        <v>252</v>
       </c>
       <c r="AB4" s="5">
-        <f>MAX(AB3,AA4)+F4</f>
-        <v>633</v>
+        <f>MIN(AB3,AA4)+F4</f>
+        <v>331</v>
       </c>
       <c r="AC4" s="5">
-        <f>MAX(AC3,AB4)+G4</f>
-        <v>639</v>
+        <f>MIN(AC3,AB4)+G4</f>
+        <v>332</v>
       </c>
       <c r="AD4" s="4"/>
       <c r="AE4" s="5"/>
@@ -1010,15 +1005,15 @@
       </c>
       <c r="AA5" s="17">
         <f t="shared" ref="AA5:AA14" si="5">AA4+E5</f>
-        <v>493</v>
+        <v>266</v>
       </c>
       <c r="AB5" s="5">
-        <f>MAX(AB4,AA5)+F5</f>
-        <v>664</v>
+        <f>MIN(AB4,AA5)+F5</f>
+        <v>297</v>
       </c>
       <c r="AC5" s="5">
-        <f>MAX(AC4,AB5)+G5</f>
-        <v>706</v>
+        <f>MIN(AC4,AB5)+G5</f>
+        <v>339</v>
       </c>
       <c r="AD5" s="4"/>
       <c r="AE5" s="5"/>
@@ -1101,28 +1096,28 @@
         <v>304</v>
       </c>
       <c r="X6" s="5">
-        <f>MAX(X5,W6)+B6</f>
-        <v>410</v>
+        <f>MIN(X5,W6)+B6</f>
+        <v>353</v>
       </c>
       <c r="Y6" s="5">
-        <f>MAX(Y5,X6)+C6</f>
-        <v>453</v>
+        <f>MIN(Y5,X6)+C6</f>
+        <v>384</v>
       </c>
       <c r="Z6" s="6">
-        <f>MAX(Z5,Y6)+D6</f>
-        <v>477</v>
+        <f>MIN(Z5,Y6)+D6</f>
+        <v>390</v>
       </c>
       <c r="AA6" s="17">
         <f t="shared" si="5"/>
-        <v>516</v>
+        <v>289</v>
       </c>
       <c r="AB6" s="5">
-        <f>MAX(AB5,AA6)+F6</f>
-        <v>727</v>
+        <f>MIN(AB5,AA6)+F6</f>
+        <v>352</v>
       </c>
       <c r="AC6" s="5">
-        <f>MAX(AC5,AB6)+G6</f>
-        <v>745</v>
+        <f>MIN(AC5,AB6)+G6</f>
+        <v>357</v>
       </c>
       <c r="AD6" s="4"/>
       <c r="AE6" s="5"/>
@@ -1204,28 +1199,28 @@
         <v>322</v>
       </c>
       <c r="X7" s="5">
-        <f>MAX(X6,W7)+B7</f>
-        <v>485</v>
+        <f>MIN(X6,W7)+B7</f>
+        <v>397</v>
       </c>
       <c r="Y7" s="5">
-        <f>MAX(Y6,X7)+C7</f>
-        <v>549</v>
+        <f>MIN(Y6,X7)+C7</f>
+        <v>448</v>
       </c>
       <c r="Z7" s="6">
-        <f>MAX(Z6,Y7)+D7</f>
-        <v>592</v>
+        <f>MIN(Z6,Y7)+D7</f>
+        <v>433</v>
       </c>
       <c r="AA7" s="17">
         <f t="shared" si="5"/>
-        <v>575</v>
+        <v>348</v>
       </c>
       <c r="AB7" s="5">
-        <f>MAX(AB6,AA7)+F7</f>
-        <v>739</v>
+        <f>MIN(AB6,AA7)+F7</f>
+        <v>360</v>
       </c>
       <c r="AC7" s="5">
-        <f>MAX(AC6,AB7)+G7</f>
-        <v>755</v>
+        <f>MIN(AC6,AB7)+G7</f>
+        <v>367</v>
       </c>
       <c r="AD7" s="4"/>
       <c r="AE7" s="5"/>
@@ -1307,28 +1302,28 @@
         <v>372</v>
       </c>
       <c r="X8" s="5">
-        <f>MAX(X7,W8)+B8</f>
-        <v>552</v>
+        <f>MIN(X7,W8)+B8</f>
+        <v>439</v>
       </c>
       <c r="Y8" s="5">
-        <f>MAX(Y7,X8)+C8</f>
-        <v>619</v>
+        <f>MIN(Y7,X8)+C8</f>
+        <v>506</v>
       </c>
       <c r="Z8" s="6">
-        <f>MAX(Z7,Y8)+D8</f>
-        <v>664</v>
+        <f>MIN(Z7,Y8)+D8</f>
+        <v>478</v>
       </c>
       <c r="AA8" s="17">
         <f t="shared" si="5"/>
-        <v>623</v>
+        <v>396</v>
       </c>
       <c r="AB8" s="5">
-        <f>MAX(AB7,AA8)+F8</f>
-        <v>787</v>
+        <f>MIN(AB7,AA8)+F8</f>
+        <v>408</v>
       </c>
       <c r="AC8" s="5">
-        <f>MAX(AC7,AB8)+G8</f>
-        <v>802</v>
+        <f>MIN(AC7,AB8)+G8</f>
+        <v>382</v>
       </c>
       <c r="AD8" s="4"/>
       <c r="AE8" s="5"/>
@@ -1410,28 +1405,28 @@
         <v>385</v>
       </c>
       <c r="X9" s="5">
-        <f>MAX(X8,W9)+B9</f>
-        <v>612</v>
+        <f>MIN(X8,W9)+B9</f>
+        <v>445</v>
       </c>
       <c r="Y9" s="5">
-        <f>MAX(Y8,X9)+C9</f>
-        <v>679</v>
+        <f>MIN(Y8,X9)+C9</f>
+        <v>505</v>
       </c>
       <c r="Z9" s="6">
-        <f>MAX(Z8,Y9)+D9</f>
-        <v>752</v>
+        <f>MIN(Z8,Y9)+D9</f>
+        <v>551</v>
       </c>
       <c r="AA9" s="17">
         <f t="shared" si="5"/>
-        <v>690</v>
+        <v>463</v>
       </c>
       <c r="AB9" s="5">
-        <f>MAX(AB8,AA9)+F9</f>
-        <v>850</v>
+        <f>MIN(AB8,AA9)+F9</f>
+        <v>471</v>
       </c>
       <c r="AC9" s="5">
-        <f>MAX(AC8,AB9)+G9</f>
-        <v>861</v>
+        <f>MIN(AC8,AB9)+G9</f>
+        <v>393</v>
       </c>
       <c r="AD9" s="10"/>
       <c r="AE9" s="11"/>
@@ -1513,72 +1508,72 @@
         <v>477</v>
       </c>
       <c r="X10" s="5">
-        <f>MAX(X9,W10)+B10</f>
-        <v>667</v>
+        <f>MIN(X9,W10)+B10</f>
+        <v>500</v>
       </c>
       <c r="Y10" s="5">
-        <f>MAX(Y9,X10)+C10</f>
-        <v>704</v>
+        <f>MIN(Y9,X10)+C10</f>
+        <v>525</v>
       </c>
       <c r="Z10" s="6">
-        <f>MAX(Z9,Y10)+D10</f>
-        <v>823</v>
+        <f>MIN(Z9,Y10)+D10</f>
+        <v>596</v>
       </c>
       <c r="AA10" s="17">
         <f t="shared" si="5"/>
-        <v>729</v>
+        <v>502</v>
       </c>
       <c r="AB10" s="5">
-        <f>MAX(AB9,AA10)+F10</f>
-        <v>887</v>
+        <f>MIN(AB9,AA10)+F10</f>
+        <v>508</v>
       </c>
       <c r="AC10" s="5">
-        <f>MAX(AC9,AB10)+G10</f>
-        <v>907</v>
+        <f>MIN(AC9,AB10)+G10</f>
+        <v>413</v>
       </c>
       <c r="AD10" s="19">
         <f t="shared" ref="AD10" si="6">AC10+H10</f>
-        <v>920</v>
+        <v>426</v>
       </c>
       <c r="AE10" s="19">
         <f t="shared" ref="AE10" si="7">AD10+I10</f>
-        <v>939</v>
+        <v>445</v>
       </c>
       <c r="AF10" s="19">
         <f t="shared" ref="AF10" si="8">AE10+J10</f>
-        <v>951</v>
+        <v>457</v>
       </c>
       <c r="AG10" s="19">
         <f t="shared" ref="AG10" si="9">AF10+K10</f>
-        <v>960</v>
+        <v>466</v>
       </c>
       <c r="AH10" s="19">
         <f t="shared" ref="AH10" si="10">AG10+L10</f>
-        <v>968</v>
+        <v>474</v>
       </c>
       <c r="AI10" s="19">
         <f t="shared" ref="AI10" si="11">AH10+M10</f>
-        <v>980</v>
+        <v>486</v>
       </c>
       <c r="AJ10" s="5">
-        <f>MAX(AJ9,AI10)+N10</f>
-        <v>1002</v>
+        <f>MIN(AJ9,AI10)+N10</f>
+        <v>508</v>
       </c>
       <c r="AK10" s="5">
-        <f>MAX(AK9,AJ10)+O10</f>
-        <v>1028</v>
+        <f>MIN(AK9,AJ10)+O10</f>
+        <v>534</v>
       </c>
       <c r="AL10" s="5">
-        <f>MAX(AL9,AK10)+P10</f>
-        <v>1044</v>
+        <f>MIN(AL9,AK10)+P10</f>
+        <v>550</v>
       </c>
       <c r="AM10" s="5">
-        <f>MAX(AM9,AL10)+Q10</f>
-        <v>1081</v>
+        <f>MIN(AM9,AL10)+Q10</f>
+        <v>587</v>
       </c>
       <c r="AN10" s="6">
-        <f>MAX(AN9,AM10)+R10</f>
-        <v>1159</v>
+        <f>MIN(AN9,AM10)+R10</f>
+        <v>665</v>
       </c>
       <c r="AO10" s="17"/>
       <c r="AP10" s="6"/>
@@ -1649,72 +1644,72 @@
         <v>551</v>
       </c>
       <c r="X11" s="5">
-        <f>MAX(X10,W11)+B11</f>
-        <v>741</v>
+        <f>MIN(X10,W11)+B11</f>
+        <v>574</v>
       </c>
       <c r="Y11" s="5">
-        <f>MAX(Y10,X11)+C11</f>
-        <v>833</v>
+        <f>MIN(Y10,X11)+C11</f>
+        <v>617</v>
       </c>
       <c r="Z11" s="6">
-        <f>MAX(Z10,Y11)+D11</f>
-        <v>915</v>
+        <f>MIN(Z10,Y11)+D11</f>
+        <v>678</v>
       </c>
       <c r="AA11" s="17">
         <f t="shared" si="5"/>
-        <v>787</v>
+        <v>560</v>
       </c>
       <c r="AB11" s="5">
-        <f>MAX(AB10,AA11)+F11</f>
-        <v>927</v>
+        <f>MIN(AB10,AA11)+F11</f>
+        <v>548</v>
       </c>
       <c r="AC11" s="5">
-        <f>MAX(AC10,AB11)+G11</f>
-        <v>939</v>
+        <f>MIN(AC10,AB11)+G11</f>
+        <v>425</v>
       </c>
       <c r="AD11" s="5">
-        <f>MAX(AD10,AC11)+H11</f>
-        <v>945</v>
+        <f>MIN(AD10,AC11)+H11</f>
+        <v>431</v>
       </c>
       <c r="AE11" s="5">
-        <f>MAX(AE10,AD11)+I11</f>
-        <v>954</v>
+        <f>MIN(AE10,AD11)+I11</f>
+        <v>440</v>
       </c>
       <c r="AF11" s="5">
-        <f>MAX(AF10,AE11)+J11</f>
-        <v>965</v>
+        <f>MIN(AF10,AE11)+J11</f>
+        <v>451</v>
       </c>
       <c r="AG11" s="5">
-        <f>MAX(AG10,AF11)+K11</f>
-        <v>983</v>
+        <f>MIN(AG10,AF11)+K11</f>
+        <v>469</v>
       </c>
       <c r="AH11" s="5">
-        <f>MAX(AH10,AG11)+L11</f>
-        <v>1003</v>
+        <f>MIN(AH10,AG11)+L11</f>
+        <v>489</v>
       </c>
       <c r="AI11" s="5">
-        <f>MAX(AI10,AH11)+M11</f>
-        <v>1008</v>
+        <f>MIN(AI10,AH11)+M11</f>
+        <v>491</v>
       </c>
       <c r="AJ11" s="5">
-        <f>MAX(AJ10,AI11)+N11</f>
-        <v>1063</v>
+        <f>MIN(AJ10,AI11)+N11</f>
+        <v>546</v>
       </c>
       <c r="AK11" s="5">
-        <f>MAX(AK10,AJ11)+O11</f>
-        <v>1115</v>
+        <f>MIN(AK10,AJ11)+O11</f>
+        <v>586</v>
       </c>
       <c r="AL11" s="5">
-        <f>MAX(AL10,AK11)+P11</f>
-        <v>1180</v>
+        <f>MIN(AL10,AK11)+P11</f>
+        <v>615</v>
       </c>
       <c r="AM11" s="5">
-        <f>MAX(AM10,AL11)+Q11</f>
-        <v>1229</v>
+        <f>MIN(AM10,AL11)+Q11</f>
+        <v>636</v>
       </c>
       <c r="AN11" s="6">
-        <f>MAX(AN10,AM11)+R11</f>
-        <v>1246</v>
+        <f>MIN(AN10,AM11)+R11</f>
+        <v>653</v>
       </c>
       <c r="AO11" s="17"/>
       <c r="AP11" s="6"/>
@@ -1785,72 +1780,72 @@
         <v>601</v>
       </c>
       <c r="X12" s="5">
-        <f>MAX(X11,W12)+B12</f>
-        <v>783</v>
+        <f>MIN(X11,W12)+B12</f>
+        <v>616</v>
       </c>
       <c r="Y12" s="5">
-        <f>MAX(Y11,X12)+C12</f>
-        <v>881</v>
+        <f>MIN(Y11,X12)+C12</f>
+        <v>664</v>
       </c>
       <c r="Z12" s="6">
-        <f>MAX(Z11,Y12)+D12</f>
-        <v>944</v>
+        <f>MIN(Z11,Y12)+D12</f>
+        <v>693</v>
       </c>
       <c r="AA12" s="17">
         <f t="shared" si="5"/>
-        <v>886</v>
+        <v>659</v>
       </c>
       <c r="AB12" s="5">
-        <f>MAX(AB11,AA12)+F12</f>
-        <v>988</v>
+        <f>MIN(AB11,AA12)+F12</f>
+        <v>609</v>
       </c>
       <c r="AC12" s="5">
-        <f>MAX(AC11,AB12)+G12</f>
-        <v>999</v>
+        <f>MIN(AC11,AB12)+G12</f>
+        <v>436</v>
       </c>
       <c r="AD12" s="5">
-        <f>MAX(AD11,AC12)+H12</f>
-        <v>1014</v>
+        <f>MIN(AD11,AC12)+H12</f>
+        <v>446</v>
       </c>
       <c r="AE12" s="5">
-        <f>MAX(AE11,AD12)+I12</f>
-        <v>1028</v>
+        <f>MIN(AE11,AD12)+I12</f>
+        <v>454</v>
       </c>
       <c r="AF12" s="5">
-        <f>MAX(AF11,AE12)+J12</f>
-        <v>1034</v>
+        <f>MIN(AF11,AE12)+J12</f>
+        <v>457</v>
       </c>
       <c r="AG12" s="5">
-        <f>MAX(AG11,AF12)+K12</f>
-        <v>1051</v>
+        <f>MIN(AG11,AF12)+K12</f>
+        <v>474</v>
       </c>
       <c r="AH12" s="5">
-        <f>MAX(AH11,AG12)+L12</f>
-        <v>1066</v>
+        <f>MIN(AH11,AG12)+L12</f>
+        <v>489</v>
       </c>
       <c r="AI12" s="5">
-        <f>MAX(AI11,AH12)+M12</f>
-        <v>1074</v>
+        <f>MIN(AI11,AH12)+M12</f>
+        <v>497</v>
       </c>
       <c r="AJ12" s="5">
-        <f>MAX(AJ11,AI12)+N12</f>
-        <v>1102</v>
+        <f>MIN(AJ11,AI12)+N12</f>
+        <v>525</v>
       </c>
       <c r="AK12" s="5">
-        <f>MAX(AK11,AJ12)+O12</f>
-        <v>1185</v>
+        <f>MIN(AK11,AJ12)+O12</f>
+        <v>595</v>
       </c>
       <c r="AL12" s="5">
-        <f>MAX(AL11,AK12)+P12</f>
-        <v>1215</v>
+        <f>MIN(AL11,AK12)+P12</f>
+        <v>625</v>
       </c>
       <c r="AM12" s="5">
-        <f>MAX(AM11,AL12)+Q12</f>
-        <v>1304</v>
+        <f>MIN(AM11,AL12)+Q12</f>
+        <v>700</v>
       </c>
       <c r="AN12" s="6">
-        <f>MAX(AN11,AM12)+R12</f>
-        <v>1330</v>
+        <f>MIN(AN11,AM12)+R12</f>
+        <v>679</v>
       </c>
       <c r="AO12" s="17"/>
       <c r="AP12" s="6"/>
@@ -1921,72 +1916,72 @@
         <v>684</v>
       </c>
       <c r="X13" s="5">
-        <f>MAX(X12,W13)+B13</f>
-        <v>865</v>
+        <f>MIN(X12,W13)+B13</f>
+        <v>698</v>
       </c>
       <c r="Y13" s="5">
-        <f>MAX(Y12,X13)+C13</f>
-        <v>911</v>
+        <f>MIN(Y12,X13)+C13</f>
+        <v>694</v>
       </c>
       <c r="Z13" s="6">
-        <f>MAX(Z12,Y13)+D13</f>
-        <v>973</v>
+        <f>MIN(Z12,Y13)+D13</f>
+        <v>722</v>
       </c>
       <c r="AA13" s="17">
         <f t="shared" si="5"/>
-        <v>957</v>
+        <v>730</v>
       </c>
       <c r="AB13" s="5">
-        <f>MAX(AB12,AA13)+F13</f>
-        <v>1044</v>
+        <f>MIN(AB12,AA13)+F13</f>
+        <v>665</v>
       </c>
       <c r="AC13" s="5">
-        <f>MAX(AC12,AB13)+G13</f>
-        <v>1064</v>
+        <f>MIN(AC12,AB13)+G13</f>
+        <v>456</v>
       </c>
       <c r="AD13" s="5">
-        <f>MAX(AD12,AC13)+H13</f>
-        <v>1071</v>
+        <f>MIN(AD12,AC13)+H13</f>
+        <v>453</v>
       </c>
       <c r="AE13" s="5">
-        <f>MAX(AE12,AD13)+I13</f>
-        <v>1089</v>
+        <f>MIN(AE12,AD13)+I13</f>
+        <v>471</v>
       </c>
       <c r="AF13" s="5">
-        <f>MAX(AF12,AE13)+J13</f>
-        <v>1094</v>
+        <f>MIN(AF12,AE13)+J13</f>
+        <v>462</v>
       </c>
       <c r="AG13" s="5">
-        <f>MAX(AG12,AF13)+K13</f>
-        <v>1104</v>
+        <f>MIN(AG12,AF13)+K13</f>
+        <v>472</v>
       </c>
       <c r="AH13" s="5">
-        <f>MAX(AH12,AG13)+L13</f>
-        <v>1120</v>
+        <f>MIN(AH12,AG13)+L13</f>
+        <v>488</v>
       </c>
       <c r="AI13" s="5">
-        <f>MAX(AI12,AH13)+M13</f>
-        <v>1138</v>
+        <f>MIN(AI12,AH13)+M13</f>
+        <v>506</v>
       </c>
       <c r="AJ13" s="5">
-        <f>MAX(AJ12,AI13)+N13</f>
-        <v>1149</v>
+        <f>MIN(AJ12,AI13)+N13</f>
+        <v>517</v>
       </c>
       <c r="AK13" s="5">
-        <f>MAX(AK12,AJ13)+O13</f>
-        <v>1199</v>
+        <f>MIN(AK12,AJ13)+O13</f>
+        <v>531</v>
       </c>
       <c r="AL13" s="5">
-        <f>MAX(AL12,AK13)+P13</f>
-        <v>1267</v>
+        <f>MIN(AL12,AK13)+P13</f>
+        <v>583</v>
       </c>
       <c r="AM13" s="5">
-        <f>MAX(AM12,AL13)+Q13</f>
-        <v>1363</v>
+        <f>MIN(AM12,AL13)+Q13</f>
+        <v>642</v>
       </c>
       <c r="AN13" s="6">
-        <f>MAX(AN12,AM13)+R13</f>
-        <v>1428</v>
+        <f>MIN(AN12,AM13)+R13</f>
+        <v>707</v>
       </c>
       <c r="AO13" s="17"/>
       <c r="AP13" s="6"/>
@@ -2058,72 +2053,72 @@
         <v>720</v>
       </c>
       <c r="X14" s="5">
-        <f>MAX(X13,W14)+B14</f>
-        <v>903</v>
+        <f>MIN(X13,W14)+B14</f>
+        <v>736</v>
       </c>
       <c r="Y14" s="5">
-        <f>MAX(Y13,X14)+C14</f>
-        <v>972</v>
+        <f>MIN(Y13,X14)+C14</f>
+        <v>755</v>
       </c>
       <c r="Z14" s="6">
-        <f>MAX(Z13,Y14)+D14</f>
-        <v>1006</v>
+        <f>MIN(Z13,Y14)+D14</f>
+        <v>755</v>
       </c>
       <c r="AA14" s="17">
         <f t="shared" si="5"/>
-        <v>1015</v>
+        <v>788</v>
       </c>
       <c r="AB14" s="5">
-        <f>MAX(AB13,AA14)+F14</f>
-        <v>1122</v>
+        <f>MIN(AB13,AA14)+F14</f>
+        <v>743</v>
       </c>
       <c r="AC14" s="5">
-        <f>MAX(AC13,AB14)+G14</f>
-        <v>1133</v>
+        <f>MIN(AC13,AB14)+G14</f>
+        <v>467</v>
       </c>
       <c r="AD14" s="5">
-        <f>MAX(AD13,AC14)+H14</f>
-        <v>1195</v>
+        <f>MIN(AD13,AC14)+H14</f>
+        <v>515</v>
       </c>
       <c r="AE14" s="13">
         <f>AD14+I14</f>
-        <v>1210</v>
+        <v>530</v>
       </c>
       <c r="AF14" s="13">
         <f t="shared" ref="AF14" si="12">AE14+J14</f>
-        <v>1241</v>
+        <v>561</v>
       </c>
       <c r="AG14" s="13">
         <f t="shared" ref="AG14" si="13">AF14+K14</f>
-        <v>1303</v>
+        <v>623</v>
       </c>
       <c r="AH14" s="14">
         <f>AG14+L14</f>
-        <v>1345</v>
+        <v>665</v>
       </c>
       <c r="AI14" s="17">
         <f t="shared" ref="AI14:AI20" si="14">AI13+M14</f>
-        <v>1167</v>
+        <v>535</v>
       </c>
       <c r="AJ14" s="5">
-        <f>MAX(AJ13,AI14)+N14</f>
-        <v>1222</v>
+        <f>MIN(AJ13,AI14)+N14</f>
+        <v>572</v>
       </c>
       <c r="AK14" s="5">
-        <f>MAX(AK13,AJ14)+O14</f>
-        <v>1247</v>
+        <f>MIN(AK13,AJ14)+O14</f>
+        <v>556</v>
       </c>
       <c r="AL14" s="5">
-        <f>MAX(AL13,AK14)+P14</f>
-        <v>1303</v>
+        <f>MIN(AL13,AK14)+P14</f>
+        <v>592</v>
       </c>
       <c r="AM14" s="5">
-        <f>MAX(AM13,AL14)+Q14</f>
-        <v>1415</v>
+        <f>MIN(AM13,AL14)+Q14</f>
+        <v>644</v>
       </c>
       <c r="AN14" s="6">
-        <f>MAX(AN13,AM14)+R14</f>
-        <v>1446</v>
+        <f>MIN(AN13,AM14)+R14</f>
+        <v>662</v>
       </c>
       <c r="AO14" s="17"/>
       <c r="AP14" s="6"/>
@@ -2194,72 +2189,72 @@
         <v>762</v>
       </c>
       <c r="X15" s="5">
-        <f>MAX(X14,W15)+B15</f>
-        <v>948</v>
+        <f>MIN(X14,W15)+B15</f>
+        <v>781</v>
       </c>
       <c r="Y15" s="5">
-        <f>MAX(Y14,X15)+C15</f>
-        <v>1066</v>
+        <f>MIN(Y14,X15)+C15</f>
+        <v>849</v>
       </c>
       <c r="Z15" s="5">
-        <f>MAX(Z14,Y15)+D15</f>
-        <v>1151</v>
+        <f>MIN(Z14,Y15)+D15</f>
+        <v>840</v>
       </c>
       <c r="AA15" s="5">
-        <f>MAX(AA14,Z15)+E15</f>
-        <v>1240</v>
+        <f>MIN(AA14,Z15)+E15</f>
+        <v>877</v>
       </c>
       <c r="AB15" s="5">
-        <f>MAX(AB14,AA15)+F15</f>
-        <v>1303</v>
+        <f>MIN(AB14,AA15)+F15</f>
+        <v>806</v>
       </c>
       <c r="AC15" s="5">
-        <f>MAX(AC14,AB15)+G15</f>
-        <v>1320</v>
+        <f>MIN(AC14,AB15)+G15</f>
+        <v>484</v>
       </c>
       <c r="AD15" s="5">
-        <f>MAX(AD14,AC15)+H15</f>
-        <v>1342</v>
+        <f>MIN(AD14,AC15)+H15</f>
+        <v>506</v>
       </c>
       <c r="AE15" s="5">
-        <f>MAX(AE14,AD15)+I15</f>
-        <v>1419</v>
+        <f>MIN(AE14,AD15)+I15</f>
+        <v>583</v>
       </c>
       <c r="AF15" s="5">
-        <f>MAX(AF14,AE15)+J15</f>
-        <v>1471</v>
+        <f>MIN(AF14,AE15)+J15</f>
+        <v>613</v>
       </c>
       <c r="AG15" s="5">
-        <f>MAX(AG14,AF15)+K15</f>
-        <v>1515</v>
+        <f>MIN(AG14,AF15)+K15</f>
+        <v>657</v>
       </c>
       <c r="AH15" s="6">
-        <f>MAX(AH14,AG15)+L15</f>
-        <v>1580</v>
+        <f>MIN(AH14,AG15)+L15</f>
+        <v>722</v>
       </c>
       <c r="AI15" s="17">
         <f t="shared" si="14"/>
-        <v>1199</v>
+        <v>567</v>
       </c>
       <c r="AJ15" s="5">
-        <f>MAX(AJ14,AI15)+N15</f>
-        <v>1285</v>
+        <f>MIN(AJ14,AI15)+N15</f>
+        <v>630</v>
       </c>
       <c r="AK15" s="5">
-        <f>MAX(AK14,AJ15)+O15</f>
-        <v>1296</v>
+        <f>MIN(AK14,AJ15)+O15</f>
+        <v>567</v>
       </c>
       <c r="AL15" s="11">
-        <f>MAX(AL14,AK15)+P15</f>
-        <v>1377</v>
+        <f>MIN(AL14,AK15)+P15</f>
+        <v>641</v>
       </c>
       <c r="AM15" s="11">
-        <f>MAX(AM14,AL15)+Q15</f>
-        <v>1468</v>
+        <f>MIN(AM14,AL15)+Q15</f>
+        <v>694</v>
       </c>
       <c r="AN15" s="21">
-        <f>MAX(AN14,AM15)+R15</f>
-        <v>1524</v>
+        <f>MIN(AN14,AM15)+R15</f>
+        <v>718</v>
       </c>
       <c r="AO15" s="17"/>
       <c r="AP15" s="6"/>
@@ -2331,80 +2326,80 @@
         <v>823</v>
       </c>
       <c r="X16" s="5">
-        <f>MAX(X15,W16)+B16</f>
-        <v>980</v>
+        <f>MIN(X15,W16)+B16</f>
+        <v>813</v>
       </c>
       <c r="Y16" s="5">
-        <f>MAX(Y15,X16)+C16</f>
-        <v>1091</v>
+        <f>MIN(Y15,X16)+C16</f>
+        <v>838</v>
       </c>
       <c r="Z16" s="5">
-        <f>MAX(Z15,Y16)+D16</f>
-        <v>1236</v>
+        <f>MIN(Z15,Y16)+D16</f>
+        <v>923</v>
       </c>
       <c r="AA16" s="5">
-        <f>MAX(AA15,Z16)+E16</f>
-        <v>1282</v>
+        <f>MIN(AA15,Z16)+E16</f>
+        <v>919</v>
       </c>
       <c r="AB16" s="5">
-        <f>MAX(AB15,AA16)+F16</f>
-        <v>1382</v>
+        <f>MIN(AB15,AA16)+F16</f>
+        <v>885</v>
       </c>
       <c r="AC16" s="5">
-        <f>MAX(AC15,AB16)+G16</f>
-        <v>1450</v>
+        <f>MIN(AC15,AB16)+G16</f>
+        <v>552</v>
       </c>
       <c r="AD16" s="5">
-        <f>MAX(AD15,AC16)+H16</f>
-        <v>1514</v>
+        <f>MIN(AD15,AC16)+H16</f>
+        <v>570</v>
       </c>
       <c r="AE16" s="5">
-        <f>MAX(AE15,AD16)+I16</f>
-        <v>1550</v>
+        <f>MIN(AE15,AD16)+I16</f>
+        <v>606</v>
       </c>
       <c r="AF16" s="5">
-        <f>MAX(AF15,AE16)+J16</f>
-        <v>1575</v>
+        <f>MIN(AF15,AE16)+J16</f>
+        <v>631</v>
       </c>
       <c r="AG16" s="5">
-        <f>MAX(AG15,AF16)+K16</f>
-        <v>1628</v>
+        <f>MIN(AG15,AF16)+K16</f>
+        <v>684</v>
       </c>
       <c r="AH16" s="6">
-        <f>MAX(AH15,AG16)+L16</f>
-        <v>1684</v>
+        <f>MIN(AH15,AG16)+L16</f>
+        <v>740</v>
       </c>
       <c r="AI16" s="17">
         <f t="shared" si="14"/>
-        <v>1245</v>
+        <v>613</v>
       </c>
       <c r="AJ16" s="5">
-        <f>MAX(AJ15,AI16)+N16</f>
-        <v>1335</v>
+        <f>MIN(AJ15,AI16)+N16</f>
+        <v>663</v>
       </c>
       <c r="AK16" s="5">
-        <f>MAX(AK15,AJ16)+O16</f>
-        <v>1390</v>
+        <f>MIN(AK15,AJ16)+O16</f>
+        <v>622</v>
       </c>
       <c r="AL16" s="19">
         <f>AK16+P16</f>
-        <v>1461</v>
+        <v>693</v>
       </c>
       <c r="AM16" s="19">
         <f t="shared" ref="AM16" si="15">AL16+Q16</f>
-        <v>1523</v>
+        <v>755</v>
       </c>
       <c r="AN16" s="19">
         <f t="shared" ref="AN16" si="16">AM16+R16</f>
-        <v>1567</v>
+        <v>799</v>
       </c>
       <c r="AO16" s="5">
-        <f>MAX(AO15,AN16)+S16</f>
-        <v>1609</v>
+        <f>MIN(AO15,AN16)+S16</f>
+        <v>841</v>
       </c>
       <c r="AP16" s="6">
-        <f>MAX(AP15,AO16)+T16</f>
-        <v>1630</v>
+        <f>MIN(AP15,AO16)+T16</f>
+        <v>862</v>
       </c>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.25">
@@ -2473,80 +2468,80 @@
         <v>874</v>
       </c>
       <c r="X17" s="5">
-        <f>MAX(X16,W17)+B17</f>
-        <v>1057</v>
+        <f>MIN(X16,W17)+B17</f>
+        <v>890</v>
       </c>
       <c r="Y17" s="5">
-        <f>MAX(Y16,X17)+C17</f>
-        <v>1191</v>
+        <f>MIN(Y16,X17)+C17</f>
+        <v>938</v>
       </c>
       <c r="Z17" s="5">
-        <f>MAX(Z16,Y17)+D17</f>
-        <v>1288</v>
+        <f>MIN(Z16,Y17)+D17</f>
+        <v>975</v>
       </c>
       <c r="AA17" s="5">
-        <f>MAX(AA16,Z17)+E17</f>
-        <v>1388</v>
+        <f>MIN(AA16,Z17)+E17</f>
+        <v>1019</v>
       </c>
       <c r="AB17" s="5">
-        <f>MAX(AB16,AA17)+F17</f>
-        <v>1404</v>
+        <f>MIN(AB16,AA17)+F17</f>
+        <v>901</v>
       </c>
       <c r="AC17" s="5">
-        <f>MAX(AC16,AB17)+G17</f>
-        <v>1500</v>
+        <f>MIN(AC16,AB17)+G17</f>
+        <v>602</v>
       </c>
       <c r="AD17" s="5">
-        <f>MAX(AD16,AC17)+H17</f>
-        <v>1555</v>
+        <f>MIN(AD16,AC17)+H17</f>
+        <v>611</v>
       </c>
       <c r="AE17" s="5">
-        <f>MAX(AE16,AD17)+I17</f>
-        <v>1617</v>
+        <f>MIN(AE16,AD17)+I17</f>
+        <v>668</v>
       </c>
       <c r="AF17" s="5">
-        <f>MAX(AF16,AE17)+J17</f>
-        <v>1662</v>
+        <f>MIN(AF16,AE17)+J17</f>
+        <v>676</v>
       </c>
       <c r="AG17" s="5">
-        <f>MAX(AG16,AF17)+K17</f>
-        <v>1682</v>
+        <f>MIN(AG16,AF17)+K17</f>
+        <v>696</v>
       </c>
       <c r="AH17" s="6">
-        <f>MAX(AH16,AG17)+L17</f>
-        <v>1696</v>
+        <f>MIN(AH16,AG17)+L17</f>
+        <v>708</v>
       </c>
       <c r="AI17" s="17">
         <f t="shared" si="14"/>
-        <v>1324</v>
+        <v>692</v>
       </c>
       <c r="AJ17" s="5">
-        <f>MAX(AJ16,AI17)+N17</f>
-        <v>1404</v>
+        <f>MIN(AJ16,AI17)+N17</f>
+        <v>732</v>
       </c>
       <c r="AK17" s="5">
-        <f>MAX(AK16,AJ17)+O17</f>
-        <v>1467</v>
+        <f>MIN(AK16,AJ17)+O17</f>
+        <v>685</v>
       </c>
       <c r="AL17" s="5">
-        <f>MAX(AL16,AK17)+P17</f>
-        <v>1537</v>
+        <f>MIN(AL16,AK17)+P17</f>
+        <v>755</v>
       </c>
       <c r="AM17" s="5">
-        <f>MAX(AM16,AL17)+Q17</f>
-        <v>1588</v>
+        <f>MIN(AM16,AL17)+Q17</f>
+        <v>806</v>
       </c>
       <c r="AN17" s="5">
-        <f>MAX(AN16,AM17)+R17</f>
-        <v>1611</v>
+        <f>MIN(AN16,AM17)+R17</f>
+        <v>822</v>
       </c>
       <c r="AO17" s="5">
-        <f>MAX(AO16,AN17)+S17</f>
-        <v>1645</v>
+        <f>MIN(AO16,AN17)+S17</f>
+        <v>856</v>
       </c>
       <c r="AP17" s="6">
-        <f>MAX(AP16,AO17)+T17</f>
-        <v>1652</v>
+        <f>MIN(AP16,AO17)+T17</f>
+        <v>863</v>
       </c>
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.25">
@@ -2615,80 +2610,80 @@
         <v>935</v>
       </c>
       <c r="X18" s="5">
-        <f>MAX(X17,W18)+B18</f>
-        <v>1094</v>
+        <f>MIN(X17,W18)+B18</f>
+        <v>927</v>
       </c>
       <c r="Y18" s="5">
-        <f>MAX(Y17,X18)+C18</f>
-        <v>1283</v>
+        <f>MIN(Y17,X18)+C18</f>
+        <v>1019</v>
       </c>
       <c r="Z18" s="5">
-        <f>MAX(Z17,Y18)+D18</f>
-        <v>1387</v>
+        <f>MIN(Z17,Y18)+D18</f>
+        <v>1074</v>
       </c>
       <c r="AA18" s="5">
-        <f>MAX(AA17,Z18)+E18</f>
-        <v>1436</v>
+        <f>MIN(AA17,Z18)+E18</f>
+        <v>1067</v>
       </c>
       <c r="AB18" s="5">
-        <f>MAX(AB17,AA18)+F18</f>
-        <v>1474</v>
+        <f>MIN(AB17,AA18)+F18</f>
+        <v>939</v>
       </c>
       <c r="AC18" s="5">
-        <f>MAX(AC17,AB18)+G18</f>
-        <v>1517</v>
+        <f>MIN(AC17,AB18)+G18</f>
+        <v>619</v>
       </c>
       <c r="AD18" s="5">
-        <f>MAX(AD17,AC18)+H18</f>
-        <v>1600</v>
+        <f>MIN(AD17,AC18)+H18</f>
+        <v>656</v>
       </c>
       <c r="AE18" s="5">
-        <f>MAX(AE17,AD18)+I18</f>
-        <v>1665</v>
+        <f>MIN(AE17,AD18)+I18</f>
+        <v>704</v>
       </c>
       <c r="AF18" s="5">
-        <f>MAX(AF17,AE18)+J18</f>
-        <v>1719</v>
+        <f>MIN(AF17,AE18)+J18</f>
+        <v>730</v>
       </c>
       <c r="AG18" s="5">
-        <f>MAX(AG17,AF18)+K18</f>
-        <v>1792</v>
+        <f>MIN(AG17,AF18)+K18</f>
+        <v>769</v>
       </c>
       <c r="AH18" s="6">
-        <f>MAX(AH17,AG18)+L18</f>
-        <v>1855</v>
+        <f>MIN(AH17,AG18)+L18</f>
+        <v>771</v>
       </c>
       <c r="AI18" s="17">
         <f t="shared" si="14"/>
-        <v>1388</v>
+        <v>756</v>
       </c>
       <c r="AJ18" s="5">
-        <f>MAX(AJ17,AI18)+N18</f>
-        <v>1470</v>
+        <f>MIN(AJ17,AI18)+N18</f>
+        <v>798</v>
       </c>
       <c r="AK18" s="5">
-        <f>MAX(AK17,AJ18)+O18</f>
-        <v>1532</v>
+        <f>MIN(AK17,AJ18)+O18</f>
+        <v>747</v>
       </c>
       <c r="AL18" s="5">
-        <f>MAX(AL17,AK18)+P18</f>
-        <v>1569</v>
+        <f>MIN(AL17,AK18)+P18</f>
+        <v>779</v>
       </c>
       <c r="AM18" s="5">
-        <f>MAX(AM17,AL18)+Q18</f>
-        <v>1597</v>
+        <f>MIN(AM17,AL18)+Q18</f>
+        <v>788</v>
       </c>
       <c r="AN18" s="5">
-        <f>MAX(AN17,AM18)+R18</f>
-        <v>1688</v>
+        <f>MIN(AN17,AM18)+R18</f>
+        <v>865</v>
       </c>
       <c r="AO18" s="5">
-        <f>MAX(AO17,AN18)+S18</f>
-        <v>1748</v>
+        <f>MIN(AO17,AN18)+S18</f>
+        <v>916</v>
       </c>
       <c r="AP18" s="6">
-        <f>MAX(AP17,AO18)+T18</f>
-        <v>1819</v>
+        <f>MIN(AP17,AO18)+T18</f>
+        <v>934</v>
       </c>
     </row>
     <row r="19" spans="1:42" x14ac:dyDescent="0.25">
@@ -2757,80 +2752,80 @@
         <v>968</v>
       </c>
       <c r="X19" s="5">
-        <f>MAX(X18,W19)+B19</f>
-        <v>1130</v>
+        <f>MIN(X18,W19)+B19</f>
+        <v>963</v>
       </c>
       <c r="Y19" s="5">
-        <f>MAX(Y18,X19)+C19</f>
-        <v>1371</v>
+        <f>MIN(Y18,X19)+C19</f>
+        <v>1051</v>
       </c>
       <c r="Z19" s="5">
-        <f>MAX(Z18,Y19)+D19</f>
-        <v>1471</v>
+        <f>MIN(Z18,Y19)+D19</f>
+        <v>1135</v>
       </c>
       <c r="AA19" s="5">
-        <f>MAX(AA18,Z19)+E19</f>
-        <v>1544</v>
+        <f>MIN(AA18,Z19)+E19</f>
+        <v>1140</v>
       </c>
       <c r="AB19" s="5">
-        <f>MAX(AB18,AA19)+F19</f>
-        <v>1620</v>
+        <f>MIN(AB18,AA19)+F19</f>
+        <v>1015</v>
       </c>
       <c r="AC19" s="5">
-        <f>MAX(AC18,AB19)+G19</f>
-        <v>1658</v>
+        <f>MIN(AC18,AB19)+G19</f>
+        <v>657</v>
       </c>
       <c r="AD19" s="5">
-        <f>MAX(AD18,AC19)+H19</f>
-        <v>1736</v>
+        <f>MIN(AD18,AC19)+H19</f>
+        <v>734</v>
       </c>
       <c r="AE19" s="5">
-        <f>MAX(AE18,AD19)+I19</f>
-        <v>1752</v>
+        <f>MIN(AE18,AD19)+I19</f>
+        <v>720</v>
       </c>
       <c r="AF19" s="5">
-        <f>MAX(AF18,AE19)+J19</f>
-        <v>1828</v>
+        <f>MIN(AF18,AE19)+J19</f>
+        <v>796</v>
       </c>
       <c r="AG19" s="5">
-        <f>MAX(AG18,AF19)+K19</f>
-        <v>1864</v>
+        <f>MIN(AG18,AF19)+K19</f>
+        <v>805</v>
       </c>
       <c r="AH19" s="6">
-        <f>MAX(AH18,AG19)+L19</f>
-        <v>1881</v>
+        <f>MIN(AH18,AG19)+L19</f>
+        <v>788</v>
       </c>
       <c r="AI19" s="17">
         <f t="shared" si="14"/>
-        <v>1404</v>
+        <v>772</v>
       </c>
       <c r="AJ19" s="5">
-        <f>MAX(AJ18,AI19)+N19</f>
-        <v>1489</v>
+        <f>MIN(AJ18,AI19)+N19</f>
+        <v>791</v>
       </c>
       <c r="AK19" s="5">
-        <f>MAX(AK18,AJ19)+O19</f>
-        <v>1545</v>
+        <f>MIN(AK18,AJ19)+O19</f>
+        <v>760</v>
       </c>
       <c r="AL19" s="5">
-        <f>MAX(AL18,AK19)+P19</f>
-        <v>1602</v>
+        <f>MIN(AL18,AK19)+P19</f>
+        <v>793</v>
       </c>
       <c r="AM19" s="5">
-        <f>MAX(AM18,AL19)+Q19</f>
-        <v>1622</v>
+        <f>MIN(AM18,AL19)+Q19</f>
+        <v>808</v>
       </c>
       <c r="AN19" s="5">
-        <f>MAX(AN18,AM19)+R19</f>
-        <v>1704</v>
+        <f>MIN(AN18,AM19)+R19</f>
+        <v>824</v>
       </c>
       <c r="AO19" s="5">
-        <f>MAX(AO18,AN19)+S19</f>
-        <v>1785</v>
+        <f>MIN(AO18,AN19)+S19</f>
+        <v>861</v>
       </c>
       <c r="AP19" s="6">
-        <f>MAX(AP18,AO19)+T19</f>
-        <v>1857</v>
+        <f>MIN(AP18,AO19)+T19</f>
+        <v>899</v>
       </c>
     </row>
     <row r="20" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2899,83 +2894,91 @@
         <v>1044</v>
       </c>
       <c r="X20" s="11">
-        <f>MAX(X19,W20)+B20</f>
-        <v>1203</v>
+        <f>MIN(X19,W20)+B20</f>
+        <v>1036</v>
       </c>
       <c r="Y20" s="11">
-        <f>MAX(Y19,X20)+C20</f>
-        <v>1447</v>
+        <f>MIN(Y19,X20)+C20</f>
+        <v>1112</v>
       </c>
       <c r="Z20" s="11">
-        <f>MAX(Z19,Y20)+D20</f>
-        <v>1500</v>
+        <f>MIN(Z19,Y20)+D20</f>
+        <v>1141</v>
       </c>
       <c r="AA20" s="11">
-        <f>MAX(AA19,Z20)+E20</f>
-        <v>1593</v>
+        <f>MIN(AA19,Z20)+E20</f>
+        <v>1189</v>
       </c>
       <c r="AB20" s="11">
-        <f>MAX(AB19,AA20)+F20</f>
-        <v>1648</v>
+        <f>MIN(AB19,AA20)+F20</f>
+        <v>1043</v>
       </c>
       <c r="AC20" s="11">
-        <f>MAX(AC19,AB20)+G20</f>
-        <v>1674</v>
+        <f>MIN(AC19,AB20)+G20</f>
+        <v>673</v>
       </c>
       <c r="AD20" s="11">
-        <f>MAX(AD19,AC20)+H20</f>
-        <v>1809</v>
+        <f>MIN(AD19,AC20)+H20</f>
+        <v>746</v>
       </c>
       <c r="AE20" s="11">
-        <f>MAX(AE19,AD20)+I20</f>
-        <v>1863</v>
+        <f>MIN(AE19,AD20)+I20</f>
+        <v>774</v>
       </c>
       <c r="AF20" s="11">
-        <f>MAX(AF19,AE20)+J20</f>
-        <v>1893</v>
+        <f>MIN(AF19,AE20)+J20</f>
+        <v>804</v>
       </c>
       <c r="AG20" s="11">
-        <f>MAX(AG19,AF20)+K20</f>
-        <v>1937</v>
+        <f>MIN(AG19,AF20)+K20</f>
+        <v>848</v>
       </c>
       <c r="AH20" s="21">
-        <f>MAX(AH19,AG20)+L20</f>
-        <v>1981</v>
+        <f>MIN(AH19,AG20)+L20</f>
+        <v>832</v>
       </c>
       <c r="AI20" s="18">
         <f t="shared" si="14"/>
-        <v>1453</v>
+        <v>821</v>
       </c>
       <c r="AJ20" s="11">
-        <f>MAX(AJ19,AI20)+N20</f>
-        <v>1501</v>
+        <f>MIN(AJ19,AI20)+N20</f>
+        <v>803</v>
       </c>
       <c r="AK20" s="11">
-        <f>MAX(AK19,AJ20)+O20</f>
-        <v>1581</v>
+        <f>MIN(AK19,AJ20)+O20</f>
+        <v>796</v>
       </c>
       <c r="AL20" s="11">
-        <f>MAX(AL19,AK20)+P20</f>
-        <v>1673</v>
+        <f>MIN(AL19,AK20)+P20</f>
+        <v>864</v>
       </c>
       <c r="AM20" s="11">
-        <f>MAX(AM19,AL20)+Q20</f>
-        <v>1743</v>
+        <f>MIN(AM19,AL20)+Q20</f>
+        <v>878</v>
       </c>
       <c r="AN20" s="11">
-        <f>MAX(AN19,AM20)+R20</f>
-        <v>1799</v>
+        <f>MIN(AN19,AM20)+R20</f>
+        <v>880</v>
       </c>
       <c r="AO20" s="11">
-        <f>MAX(AO19,AN20)+S20</f>
-        <v>1817</v>
+        <f>MIN(AO19,AN20)+S20</f>
+        <v>879</v>
       </c>
       <c r="AP20" s="12">
-        <f>MAX(AP19,AO20)+T20</f>
-        <v>1871</v>
+        <f>MIN(AP19,AO20)+T20</f>
+        <v>893</v>
       </c>
     </row>
     <row r="21" spans="1:42" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AG23">
+        <v>1981</v>
+      </c>
+      <c r="AH23">
+        <v>718</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
